--- a/PythonResources/Data/Consumption/Sympheny/post_CC_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CC_hea.xlsx
@@ -375,7 +375,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>47.86670660248021</v>
+        <v>47.8667066024802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -399,7 +399,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>51.11745056331185</v>
+        <v>51.11745056331184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>53.49689432620331</v>
+        <v>53.4968943262033</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>25.60300831559766</v>
+        <v>25.60300831559765</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>239.5855741056498</v>
+        <v>239.5855741056497</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -783,7 +783,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>65.84385995659032</v>
+        <v>65.84385995659031</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>90.10439776539195</v>
+        <v>90.10439776539194</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>74.23870401642137</v>
+        <v>74.23870401642135</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>42.74716585652063</v>
+        <v>42.74716585652062</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>126.4472287495656</v>
+        <v>126.4472287495655</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>122.3245398345087</v>
+        <v>122.3245398345086</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>49.53809073596586</v>
+        <v>49.53809073596585</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>52.92857096803124</v>
+        <v>52.92857096803122</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>66.21582571885931</v>
+        <v>66.21582571885929</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>66.92259583569501</v>
+        <v>66.92259583569499</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>49.90554320423946</v>
+        <v>49.90554320423945</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>33.34911032424794</v>
+        <v>33.34911032424793</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>63.93160073642891</v>
+        <v>63.9316007364289</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>78.61275996133807</v>
+        <v>78.61275996133806</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>6.872252092673752</v>
+        <v>6.872252092673751</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>37.92673341261883</v>
+        <v>37.92673341261882</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>53.42427132282303</v>
+        <v>53.42427132282302</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>56.91023409928427</v>
+        <v>56.91023409928426</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>99.48536725611071</v>
+        <v>99.48536725611066</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>0.8501375382384438</v>
+        <v>0.8501375382384437</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>88.42829518818385</v>
+        <v>88.42829518818384</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>17.92780019119955</v>
+        <v>17.92780019119954</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>22.71417778040891</v>
+        <v>22.7141777804089</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>80.74019193808465</v>
+        <v>80.74019193808464</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>88.42137871167145</v>
+        <v>88.42137871167144</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>14.99260581769458</v>
+        <v>14.99260581769457</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>3.150622101893767</v>
+        <v>3.150622101893766</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>0.8087910761041013</v>
+        <v>0.8087910761041012</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>0.9961250147268198</v>
+        <v>0.9961250147268196</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>46.55729450884519</v>
+        <v>46.55729450884517</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>75.57953332540089</v>
+        <v>75.57953332540087</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>56.72507181705803</v>
+        <v>56.72507181705802</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>259.8564186367391</v>
+        <v>259.856418636739</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>165.4946658140254</v>
+        <v>165.4946658140253</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>65.03310823523758</v>
+        <v>65.03310823523756</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>76.39544309703408</v>
+        <v>76.39544309703406</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>66.23889040960195</v>
+        <v>66.23889040960194</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>124.2791185126528</v>
+        <v>124.2791185126527</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>254.5984311321159</v>
+        <v>254.5984311321158</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>233.1828511240154</v>
+        <v>233.1828511240153</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>33.14132295783705</v>
+        <v>33.14132295783704</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>73.7334495457692</v>
+        <v>73.73344954576919</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>154.4947425986375</v>
+        <v>154.4947425986374</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>185.6071640629259</v>
+        <v>185.6071640629258</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>35.32159564285426</v>
+        <v>35.32159564285425</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>207.7809481551472</v>
+        <v>207.7809481551471</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>92.78125001831695</v>
+        <v>92.78125001831694</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>155.5092373060676</v>
+        <v>155.5092373060675</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>52.84337521709238</v>
+        <v>52.84337521709237</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>83.33161398323986</v>
+        <v>83.33161398323985</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>87.71812544729968</v>
+        <v>87.71812544729967</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>40.45124733964765</v>
+        <v>40.45124733964764</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>63.66968314917727</v>
+        <v>63.66968314917726</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>18.78620526343863</v>
+        <v>18.78620526343862</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>64.1677866864861</v>
+        <v>64.16778668648608</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>77.99100975281803</v>
+        <v>77.99100975281802</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>116.3691311791831</v>
+        <v>116.369131179183</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>168.0873773717507</v>
+        <v>168.0873773717506</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>45.52404325494075</v>
+        <v>45.52404325494074</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>62.31449335930334</v>
+        <v>62.31449335930333</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>127.6485562441423</v>
+        <v>127.6485562441422</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>143.9031552614165</v>
+        <v>143.9031552614164</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>157.6525830402135</v>
+        <v>157.6525830402134</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>57.01181252128429</v>
+        <v>57.01181252128428</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>167.2116811082306</v>
+        <v>167.2116811082305</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>72.91021299816948</v>
+        <v>72.91021299816947</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>94.32344843796068</v>
+        <v>94.32344843796066</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>224.3872031117111</v>
+        <v>224.387203111711</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>27.07724356137582</v>
+        <v>27.07724356137581</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>38.1958898545254</v>
+        <v>38.19588985452539</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>47.5109476686492</v>
+        <v>47.51094766864919</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>222.7511926525919</v>
+        <v>222.7511926525918</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>22.91393500036048</v>
+        <v>22.91393500036047</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>38.89131812216491</v>
+        <v>38.8913181221649</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>43.2082838287504</v>
+        <v>43.20828382875038</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>32.59896569369036</v>
+        <v>32.59896569369035</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>61.27675811850739</v>
+        <v>61.27675811850737</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>212.4770012502411</v>
+        <v>212.477001250241</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>50.21115768335551</v>
+        <v>50.21115768335549</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>1088</v>
       </c>
       <c r="B1088">
-        <v>235.9520793683265</v>
+        <v>235.9520793683264</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>113.4501436341161</v>
+        <v>113.450143634116</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>39.31688657740505</v>
+        <v>39.31688657740504</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>203.0234966774537</v>
+        <v>203.0234966774536</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>56.98511374966225</v>
+        <v>56.98511374966224</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>79.8198023411687</v>
+        <v>79.81980234116868</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>92.18678472349627</v>
+        <v>92.18678472349626</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>96.18711647991205</v>
+        <v>96.18711647991204</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>95.32112086777163</v>
+        <v>95.32112086777161</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9639,7 +9639,7 @@
         <v>1162</v>
       </c>
       <c r="B1162">
-        <v>95.46299655758759</v>
+        <v>95.46299655758757</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>82.93951424061486</v>
+        <v>82.93951424061484</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>88.96435142499932</v>
+        <v>88.96435142499931</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>92.55095479613686</v>
+        <v>92.55095479613684</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>97.19056240918462</v>
+        <v>97.19056240918459</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>104.5794694359145</v>
+        <v>104.5794694359144</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>52.64376453266014</v>
+        <v>52.64376453266013</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>50.79653777597768</v>
+        <v>50.79653777597767</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9919,7 +9919,7 @@
         <v>1197</v>
       </c>
       <c r="B1197">
-        <v>52.2179323134852</v>
+        <v>52.21793231348519</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>179.1187764166908</v>
+        <v>179.1187764166907</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>135.5989580738434</v>
+        <v>135.5989580738433</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>20.48006794558961</v>
+        <v>20.4800679455896</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>47.95805684523095</v>
+        <v>47.95805684523094</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>96.4852869546461</v>
+        <v>96.48528695464609</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>102.3454475224068</v>
+        <v>102.3454475224067</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>7.030765425354515</v>
+        <v>7.030765425354513</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10519,7 +10519,7 @@
         <v>1272</v>
       </c>
       <c r="B1272">
-        <v>8.85065744626103</v>
+        <v>8.850657446261028</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>1274</v>
       </c>
       <c r="B1274">
-        <v>11.57815237466671</v>
+        <v>11.5781523746667</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>0.8423301257685056</v>
+        <v>0.8423301257685055</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>7.73007102283551</v>
+        <v>7.730071022835509</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>5.345504378188247</v>
+        <v>5.345504378188246</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>41.61954572816724</v>
+        <v>41.61954572816723</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>6.748810571189594</v>
+        <v>6.748810571189593</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11055,7 +11055,7 @@
         <v>1339</v>
       </c>
       <c r="B1339">
-        <v>9.41262116289416</v>
+        <v>9.412621162894158</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>114.9330830897425</v>
+        <v>114.9330830897424</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>5.513841452084938</v>
+        <v>5.513841452084937</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11511,7 +11511,7 @@
         <v>1396</v>
       </c>
       <c r="B1396">
-        <v>3.257915409147686</v>
+        <v>3.257915409147685</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>217.9066404622083</v>
+        <v>217.9066404622082</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>190.4472908806258</v>
+        <v>190.4472908806257</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>168.6958514622194</v>
+        <v>168.6958514622193</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>72.63475552893169</v>
+        <v>72.63475552893168</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>99.1620512862595</v>
+        <v>99.16205128625948</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>125.9571260516122</v>
+        <v>125.9571260516121</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>49.04866210140141</v>
+        <v>49.0486621014014</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>69.24864205534237</v>
+        <v>69.24864205534236</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>86.48183457781067</v>
+        <v>86.48183457781066</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>54.40002203894211</v>
+        <v>54.4000220389421</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>54.17145593589013</v>
+        <v>54.17145593589012</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12423,7 +12423,7 @@
         <v>1510</v>
       </c>
       <c r="B1510">
-        <v>78.57794312194511</v>
+        <v>78.5779431219451</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>86.598887150652</v>
+        <v>86.59888715065199</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>19.2941940868815</v>
+        <v>19.29419408688149</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12655,7 +12655,7 @@
         <v>1539</v>
       </c>
       <c r="B1539">
-        <v>59.71067440921275</v>
+        <v>59.71067440921274</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -12671,7 +12671,7 @@
         <v>1541</v>
       </c>
       <c r="B1541">
-        <v>81.37495450072126</v>
+        <v>81.37495450072124</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>8.238138975458819</v>
+        <v>8.238138975458817</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12863,7 +12863,7 @@
         <v>1565</v>
       </c>
       <c r="B1565">
-        <v>26.42325553860303</v>
+        <v>26.42325553860302</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>64.72825574082205</v>
+        <v>64.72825574082204</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>35.70580005169774</v>
+        <v>35.70580005169773</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>38.61304717095596</v>
+        <v>38.61304717095595</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13207,7 +13207,7 @@
         <v>1608</v>
       </c>
       <c r="B1608">
-        <v>58.8641094069356</v>
+        <v>58.86410940693558</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>92.91418704145373</v>
+        <v>92.91418704145372</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>43.47919869688894</v>
+        <v>43.47919869688893</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>99.46798814351807</v>
+        <v>99.46798814351806</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>96.92035091153886</v>
+        <v>96.92035091153885</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>3.387549521678758</v>
+        <v>3.387549521678757</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>26.54874855735782</v>
+        <v>26.54874855735781</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>58.779294648347</v>
+        <v>58.77929464834699</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>64.78267903270147</v>
+        <v>64.78267903270145</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>114.4615317885364</v>
+        <v>114.4615317885363</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>25.61194698227683</v>
+        <v>25.61194698227682</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14759,7 +14759,7 @@
         <v>1802</v>
       </c>
       <c r="B1802">
-        <v>28.95451009952107</v>
+        <v>28.95451009952106</v>
       </c>
     </row>
     <row r="1803" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>47.9826748124785</v>
+        <v>47.98267481247849</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>95.91139524673945</v>
+        <v>95.91139524673943</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>60.86206259880158</v>
+        <v>60.86206259880157</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>65.30912253944884</v>
+        <v>65.30912253944882</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>77.91185126527562</v>
+        <v>77.9118512652756</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>85.64737340943022</v>
+        <v>85.6473734094302</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>24.47239886264992</v>
+        <v>24.47239886264991</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>89.19945594292383</v>
+        <v>89.19945594292382</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>8.98925953257514</v>
+        <v>8.989259532575138</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>126.7475972570896</v>
+        <v>126.7475972570895</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>19.16672870003652</v>
+        <v>19.16672870003651</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16127,7 +16127,7 @@
         <v>1973</v>
       </c>
       <c r="B1973">
-        <v>48.11256389681321</v>
+        <v>48.1125638968132</v>
       </c>
     </row>
     <row r="1974" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>31.43324633031099</v>
+        <v>31.43324633031098</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>50.55639536689857</v>
+        <v>50.55639536689856</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>54.12685052380587</v>
+        <v>54.12685052380586</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>63.56265360585815</v>
+        <v>63.56265360585814</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>55.28424666968726</v>
+        <v>55.28424666968725</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>62.43052018350937</v>
+        <v>62.43052018350936</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16455,7 +16455,7 @@
         <v>2014</v>
       </c>
       <c r="B2014">
-        <v>67.1708856196489</v>
+        <v>67.17088561964889</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>68.119703107315</v>
+        <v>68.11970310731499</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>37.46880991471048</v>
+        <v>37.46880991471047</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>17.60298955905118</v>
+        <v>17.60298955905117</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>44.19446787384582</v>
+        <v>44.19446787384581</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>61.06604004170988</v>
+        <v>61.06604004170987</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>16.78045638194425</v>
+        <v>16.78045638194424</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>35.47575100919013</v>
+        <v>35.47575100919012</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>13.31741176070633</v>
+        <v>13.31741176070632</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>42.72846792425404</v>
+        <v>42.72846792425403</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>57.26194865278175</v>
+        <v>57.26194865278174</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17855,7 +17855,7 @@
         <v>2189</v>
       </c>
       <c r="B2189">
-        <v>59.49992702531138</v>
+        <v>59.49992702531137</v>
       </c>
     </row>
     <row r="2190" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>131.7772824225956</v>
+        <v>131.7772824225955</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>93.73849329834457</v>
+        <v>93.73849329834454</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18103,7 +18103,7 @@
         <v>2220</v>
       </c>
       <c r="B2220">
-        <v>83.28287626951048</v>
+        <v>83.28287626951047</v>
       </c>
     </row>
     <row r="2221" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>59.21881328502742</v>
+        <v>59.21881328502741</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>203.7627097582692</v>
+        <v>203.7627097582691</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18295,7 +18295,7 @@
         <v>2244</v>
       </c>
       <c r="B2244">
-        <v>70.01496420723406</v>
+        <v>70.01496420723404</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>56.14918722608849</v>
+        <v>56.14918722608848</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>59.70062207258667</v>
+        <v>59.70062207258666</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>3.08896874749058</v>
+        <v>3.088968747490579</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>78.96711215418351</v>
+        <v>78.9671121541835</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18703,7 +18703,7 @@
         <v>2295</v>
       </c>
       <c r="B2295">
-        <v>72.8729929762595</v>
+        <v>72.87299297625948</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>35.86867135072339</v>
+        <v>35.86867135072338</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19103,7 +19103,7 @@
         <v>2345</v>
       </c>
       <c r="B2345">
-        <v>7.272118217823292</v>
+        <v>7.272118217823291</v>
       </c>
     </row>
     <row r="2346" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>39.18808185591339</v>
+        <v>39.18808185591338</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>50.85254365146586</v>
+        <v>50.85254365146585</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>193.8194248656709</v>
+        <v>193.8194248656708</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19335,7 +19335,7 @@
         <v>2374</v>
       </c>
       <c r="B2374">
-        <v>28.48149344312166</v>
+        <v>28.48149344312165</v>
       </c>
     </row>
     <row r="2375" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>80.17456483346825</v>
+        <v>80.17456483346824</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>71.20190191381251</v>
+        <v>71.20190191381249</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20247,7 +20247,7 @@
         <v>2488</v>
       </c>
       <c r="B2488">
-        <v>3.879996787941417</v>
+        <v>3.879996787941416</v>
       </c>
     </row>
     <row r="2489" spans="1:2">
@@ -20287,7 +20287,7 @@
         <v>2493</v>
       </c>
       <c r="B2493">
-        <v>34.22565649378016</v>
+        <v>34.22565649378015</v>
       </c>
     </row>
     <row r="2494" spans="1:2">
@@ -20303,7 +20303,7 @@
         <v>2495</v>
       </c>
       <c r="B2495">
-        <v>49.357881354293</v>
+        <v>49.35788135429299</v>
       </c>
     </row>
     <row r="2496" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>57.28348937412336</v>
+        <v>57.28348937412335</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>76.51618836496255</v>
+        <v>76.51618836496253</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20375,7 +20375,7 @@
         <v>2504</v>
       </c>
       <c r="B2504">
-        <v>45.05369354499315</v>
+        <v>45.05369354499314</v>
       </c>
     </row>
     <row r="2505" spans="1:2">
@@ -20463,7 +20463,7 @@
         <v>2515</v>
       </c>
       <c r="B2515">
-        <v>15.18776182233917</v>
+        <v>15.18776182233916</v>
       </c>
     </row>
     <row r="2516" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>169.5593266634273</v>
+        <v>169.5593266634272</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>17.78231972760806</v>
+        <v>17.78231972760805</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>51.98321171862133</v>
+        <v>51.98321171862132</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>70.34877212026933</v>
+        <v>70.34877212026932</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>94.30264039421573</v>
+        <v>94.3026403942157</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>60.54114981146741</v>
+        <v>60.5411498114674</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>53.49701155461878</v>
+        <v>53.49701155461877</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>56.85384723144582</v>
+        <v>56.85384723144581</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21807,7 +21807,7 @@
         <v>2683</v>
       </c>
       <c r="B2683">
-        <v>20.48247112810663</v>
+        <v>20.48247112810662</v>
       </c>
     </row>
     <row r="2684" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>53.76065826099853</v>
+        <v>53.76065826099852</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>235.0745074501589</v>
+        <v>235.0745074501588</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>1.829704039280898</v>
+        <v>1.829704039280897</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>97.02761491168891</v>
+        <v>97.0276149116889</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>3.848327531503672</v>
+        <v>3.848327531503671</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>12.18870726950989</v>
+        <v>12.18870726950988</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>214.845630691806</v>
+        <v>214.8456306918059</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>83.49476663046264</v>
+        <v>83.49476663046262</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22439,7 +22439,7 @@
         <v>2762</v>
       </c>
       <c r="B2762">
-        <v>5.323890389086973</v>
+        <v>5.323890389086972</v>
       </c>
     </row>
     <row r="2763" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>7.704896220614501</v>
+        <v>7.7048962206145</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>60.2205300951719</v>
+        <v>60.22053009517189</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22623,7 +22623,7 @@
         <v>2785</v>
       </c>
       <c r="B2785">
-        <v>2.78330151558757</v>
+        <v>2.783301515587569</v>
       </c>
     </row>
     <row r="2786" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>9.42027031700322</v>
+        <v>9.420270317003219</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22703,7 +22703,7 @@
         <v>2795</v>
       </c>
       <c r="B2795">
-        <v>82.84707963502106</v>
+        <v>82.84707963502105</v>
       </c>
     </row>
     <row r="2796" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>74.49103818070878</v>
+        <v>74.49103818070877</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>74.7123068148981</v>
+        <v>74.71230681489808</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>5.807240730309583</v>
+        <v>5.807240730309582</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>6.269021043086719</v>
+        <v>6.269021043086718</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>7.836162738830917</v>
+        <v>7.836162738830916</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22927,7 +22927,7 @@
         <v>2823</v>
       </c>
       <c r="B2823">
-        <v>3.118870785565197</v>
+        <v>3.118870785565196</v>
       </c>
     </row>
     <row r="2824" spans="1:2">
@@ -22943,7 +22943,7 @@
         <v>2825</v>
       </c>
       <c r="B2825">
-        <v>6.218689022907019</v>
+        <v>6.218689022907018</v>
       </c>
     </row>
     <row r="2826" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>42.38660055765558</v>
+        <v>42.38660055765557</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>6.067742784444493</v>
+        <v>6.067742784444492</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>227.1965527812149</v>
+        <v>227.1965527812148</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>85.27253555098235</v>
+        <v>85.27253555098234</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>52.25866918785913</v>
+        <v>52.25866918785912</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23703,7 +23703,7 @@
         <v>2920</v>
       </c>
       <c r="B2920">
-        <v>49.22714236394617</v>
+        <v>49.22714236394616</v>
       </c>
     </row>
     <row r="2921" spans="1:2">
@@ -23855,7 +23855,7 @@
         <v>2939</v>
       </c>
       <c r="B2939">
-        <v>76.42237632548705</v>
+        <v>76.42237632548704</v>
       </c>
     </row>
     <row r="2940" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>0.6040838863095381</v>
+        <v>0.604083886309538</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>19.34921524367978</v>
+        <v>19.34921524367977</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>6.307943807731332</v>
+        <v>6.307943807731331</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24471,7 +24471,7 @@
         <v>3016</v>
       </c>
       <c r="B3016">
-        <v>4.400901252058092</v>
+        <v>4.400901252058091</v>
       </c>
     </row>
     <row r="3017" spans="1:2">
@@ -24487,7 +24487,7 @@
         <v>3018</v>
       </c>
       <c r="B3018">
-        <v>5.213968234616262</v>
+        <v>5.213968234616261</v>
       </c>
     </row>
     <row r="3019" spans="1:2">
@@ -24495,7 +24495,7 @@
         <v>3019</v>
       </c>
       <c r="B3019">
-        <v>6.008161442284642</v>
+        <v>6.008161442284641</v>
       </c>
     </row>
     <row r="3020" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>20.73254864539636</v>
+        <v>20.73254864539635</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>107.0063907070691</v>
+        <v>107.006390707069</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>99.62129360384182</v>
+        <v>99.62129360384181</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>79.9149038932143</v>
+        <v>79.91490389321429</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>88.1138592708041</v>
+        <v>88.11385927080408</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>47.87960172818131</v>
+        <v>47.8796017281813</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -24847,7 +24847,7 @@
         <v>3063</v>
       </c>
       <c r="B3063">
-        <v>45.24782380100243</v>
+        <v>45.24782380100242</v>
       </c>
     </row>
     <row r="3064" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>63.11929573857126</v>
+        <v>63.11929573857125</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -25167,7 +25167,7 @@
         <v>3103</v>
       </c>
       <c r="B3103">
-        <v>153.7025715811359</v>
+        <v>153.7025715811358</v>
       </c>
     </row>
     <row r="3104" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>0.881903508118947</v>
+        <v>0.8819035081189469</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>41.27084980636797</v>
+        <v>41.27084980636796</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>0.9841413399559574</v>
+        <v>0.9841413399559572</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25839,7 +25839,7 @@
         <v>3187</v>
       </c>
       <c r="B3187">
-        <v>2.165282101389685</v>
+        <v>2.165282101389684</v>
       </c>
     </row>
     <row r="3188" spans="1:2">
@@ -25847,7 +25847,7 @@
         <v>3188</v>
       </c>
       <c r="B3188">
-        <v>2.698697768146813</v>
+        <v>2.698697768146812</v>
       </c>
     </row>
     <row r="3189" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>5.420085096106786</v>
+        <v>5.420085096106785</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>22.57936510262469</v>
+        <v>22.57936510262468</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>115.6663468284732</v>
+        <v>115.6663468284731</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>80.58251971928485</v>
+        <v>80.58251971928483</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26015,7 +26015,7 @@
         <v>3209</v>
       </c>
       <c r="B3209">
-        <v>98.8080214715566</v>
+        <v>98.80802147155656</v>
       </c>
     </row>
     <row r="3210" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>39.00863445894105</v>
+        <v>39.00863445894104</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>51.23966118643363</v>
+        <v>51.23966118643362</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26935,7 +26935,7 @@
         <v>3324</v>
       </c>
       <c r="B3324">
-        <v>1.712633882177237</v>
+        <v>1.712633882177236</v>
       </c>
     </row>
     <row r="3325" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>1.237340063807427</v>
+        <v>1.237340063807426</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -26991,7 +26991,7 @@
         <v>3331</v>
       </c>
       <c r="B3331">
-        <v>3.366184642960346</v>
+        <v>3.366184642960345</v>
       </c>
     </row>
     <row r="3332" spans="1:2">
@@ -26999,7 +26999,7 @@
         <v>3332</v>
       </c>
       <c r="B3332">
-        <v>4.866239447244576</v>
+        <v>4.866239447244575</v>
       </c>
     </row>
     <row r="3333" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>39.86809458691931</v>
+        <v>39.8680945869193</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>49.68925677770739</v>
+        <v>49.68925677770738</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27239,7 +27239,7 @@
         <v>3362</v>
       </c>
       <c r="B3362">
-        <v>56.16741624469322</v>
+        <v>56.16741624469321</v>
       </c>
     </row>
     <row r="3363" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>95.04122337229812</v>
+        <v>95.04122337229811</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>87.19918455914204</v>
+        <v>87.19918455914203</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27647,7 +27647,7 @@
         <v>3413</v>
       </c>
       <c r="B3413">
-        <v>8.26269832849864</v>
+        <v>8.262698328498638</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>51.94068711091157</v>
+        <v>51.94068711091156</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>0.996813731667674</v>
+        <v>0.9968137316676738</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27863,7 +27863,7 @@
         <v>3440</v>
       </c>
       <c r="B3440">
-        <v>131.336269123618</v>
+        <v>131.3362691236179</v>
       </c>
     </row>
     <row r="3441" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>68.95521933143463</v>
+        <v>68.95521933143462</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -28103,7 +28103,7 @@
         <v>3470</v>
       </c>
       <c r="B3470">
-        <v>43.45159140504704</v>
+        <v>43.45159140504703</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -28415,7 +28415,7 @@
         <v>3509</v>
       </c>
       <c r="B3509">
-        <v>4.071254947771811</v>
+        <v>4.07125494777181</v>
       </c>
     </row>
     <row r="3510" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>0.7954797895281029</v>
+        <v>0.7954797895281028</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>2.352686377061682</v>
+        <v>2.352686377061681</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28655,7 +28655,7 @@
         <v>3539</v>
       </c>
       <c r="B3539">
-        <v>5.433976663339334</v>
+        <v>5.433976663339333</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -28751,7 +28751,7 @@
         <v>3551</v>
       </c>
       <c r="B3551">
-        <v>8.316652706716193</v>
+        <v>8.316652706716191</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -28759,7 +28759,7 @@
         <v>3552</v>
       </c>
       <c r="B3552">
-        <v>8.213989921873123</v>
+        <v>8.213989921873122</v>
       </c>
     </row>
     <row r="3553" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>5.949928226902633</v>
+        <v>5.949928226902632</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>71.505230438827</v>
+        <v>71.50523043882698</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>45.94826358340304</v>
+        <v>45.94826358340303</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>32.15516821984549</v>
+        <v>32.15516821984548</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>6.831808289338486</v>
+        <v>6.831808289338485</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>5.078921100001114</v>
+        <v>5.078921100001113</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29879,7 +29879,7 @@
         <v>3692</v>
       </c>
       <c r="B3692">
-        <v>3.780997391081614</v>
+        <v>3.780997391081613</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -29935,7 +29935,7 @@
         <v>3699</v>
       </c>
       <c r="B3699">
-        <v>22.65799606229753</v>
+        <v>22.65799606229752</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -29975,7 +29975,7 @@
         <v>3704</v>
       </c>
       <c r="B3704">
-        <v>157.5851767013214</v>
+        <v>157.5851767013213</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>86.63824659114422</v>
+        <v>86.63824659114421</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>94.0617360004361</v>
+        <v>94.06173600043608</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>47.48952417572306</v>
+        <v>47.48952417572305</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>57.25494425495774</v>
+        <v>57.25494425495773</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>51.17635784208278</v>
+        <v>51.17635784208277</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>34.18820201503924</v>
+        <v>34.18820201503923</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30551,7 +30551,7 @@
         <v>3776</v>
       </c>
       <c r="B3776">
-        <v>92.63506618423268</v>
+        <v>92.63506618423266</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>30.64380087346893</v>
+        <v>30.64380087346892</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>42.41705063857249</v>
+        <v>42.41705063857248</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>28.61583720724402</v>
+        <v>28.61583720724401</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>27.15493669372494</v>
+        <v>27.15493669372493</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>19.78988564954214</v>
+        <v>19.78988564954213</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>69.19436529898229</v>
+        <v>69.19436529898228</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>22.04152113247339</v>
+        <v>22.04152113247338</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>63.50204651506298</v>
+        <v>63.50204651506297</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>44.94977055468384</v>
+        <v>44.94977055468383</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>40.27704591426735</v>
+        <v>40.27704591426734</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>24.91385176818551</v>
+        <v>24.9138517681855</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33943,7 +33943,7 @@
         <v>4200</v>
       </c>
       <c r="B4200">
-        <v>0.656171402010819</v>
+        <v>0.6561714020108189</v>
       </c>
     </row>
     <row r="4201" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>44.82755993156206</v>
+        <v>44.82755993156205</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>52.22848287087701</v>
+        <v>52.228482870877</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>24.94606027533439</v>
+        <v>24.94606027533438</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>0.3588625561304307</v>
+        <v>0.3588625561304306</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>39.2735706778909</v>
+        <v>39.27357067789089</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35535,7 +35535,7 @@
         <v>4399</v>
       </c>
       <c r="B4399">
-        <v>135.4366260255289</v>
+        <v>135.4366260255288</v>
       </c>
     </row>
     <row r="4400" spans="1:2">
@@ -35879,7 +35879,7 @@
         <v>4442</v>
       </c>
       <c r="B4442">
-        <v>0.7448341833370359</v>
+        <v>0.7448341833370358</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>58.69450919686227</v>
+        <v>58.69450919686226</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>29.47180978986221</v>
+        <v>29.4718097898622</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>45.59423376870014</v>
+        <v>45.59423376870013</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>137.7474911653736</v>
+        <v>137.7474911653735</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>45.76743875254899</v>
+        <v>45.76743875254898</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>54.68940038251633</v>
+        <v>54.68940038251632</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>31.57635291848933</v>
+        <v>31.57635291848932</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>44.99812727606296</v>
+        <v>44.99812727606295</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>30.38912214087222</v>
+        <v>30.38912214087221</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>38.56756254575572</v>
+        <v>38.56756254575571</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -38023,7 +38023,7 @@
         <v>4710</v>
       </c>
       <c r="B4710">
-        <v>2.523239068010652</v>
+        <v>2.523239068010651</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38087,7 +38087,7 @@
         <v>4718</v>
       </c>
       <c r="B4718">
-        <v>40.21872477757374</v>
+        <v>40.21872477757373</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38231,7 +38231,7 @@
         <v>4736</v>
       </c>
       <c r="B4736">
-        <v>95.69296940162516</v>
+        <v>95.69296940162512</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>20.81888737338599</v>
+        <v>20.81888737338598</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>54.70229550821743</v>
+        <v>54.70229550821742</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>73.77301413598849</v>
+        <v>73.77301413598848</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>30.66285049098192</v>
+        <v>30.66285049098191</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>34.52962977507971</v>
+        <v>34.5296297750797</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>25.41731850550183</v>
+        <v>25.41731850550182</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>27.66845576766735</v>
+        <v>27.66845576766734</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>87.11712466831686</v>
+        <v>87.11712466831685</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>63.29279379345878</v>
+        <v>63.29279379345877</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>30.10249866506142</v>
+        <v>30.10249866506141</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40207,7 +40207,7 @@
         <v>4983</v>
       </c>
       <c r="B4983">
-        <v>30.78769875345165</v>
+        <v>30.78769875345164</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>36.91171117731912</v>
+        <v>36.91171117731911</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>1.65667489805524</v>
+        <v>1.656674898055239</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40679,7 +40679,7 @@
         <v>5042</v>
       </c>
       <c r="B5042">
-        <v>6.605703983011258</v>
+        <v>6.605703983011257</v>
       </c>
     </row>
     <row r="5043" spans="1:2">
@@ -40687,7 +40687,7 @@
         <v>5043</v>
       </c>
       <c r="B5043">
-        <v>7.228919546724609</v>
+        <v>7.228919546724608</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>7.820161060120007</v>
+        <v>7.820161060120006</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>61.92503125602628</v>
+        <v>61.92503125602627</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>34.0967638509769</v>
+        <v>34.09676385097689</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>88.87496475820761</v>
+        <v>88.8749647582076</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>0.8238490660705212</v>
+        <v>0.8238490660705211</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -42007,7 +42007,7 @@
         <v>5208</v>
       </c>
       <c r="B5208">
-        <v>3.449592660563365</v>
+        <v>3.449592660563364</v>
       </c>
     </row>
     <row r="5209" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>62.91033608800572</v>
+        <v>62.91033608800571</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>45.15843713421072</v>
+        <v>45.15843713421071</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42319,7 +42319,7 @@
         <v>5247</v>
       </c>
       <c r="B5247">
-        <v>39.76241317037803</v>
+        <v>39.76241317037802</v>
       </c>
     </row>
     <row r="5248" spans="1:2">
@@ -42335,7 +42335,7 @@
         <v>5249</v>
       </c>
       <c r="B5249">
-        <v>45.16605698121591</v>
+        <v>45.1660569812159</v>
       </c>
     </row>
     <row r="5250" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>61.24715794360259</v>
+        <v>61.24715794360258</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>38.18569098237999</v>
+        <v>38.18569098237998</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>55.13516143232023</v>
+        <v>55.13516143232022</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>32.35387038405788</v>
+        <v>32.35387038405787</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>29.20570128675771</v>
+        <v>29.2057012867577</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>0.6010183632451406</v>
+        <v>0.6010183632451405</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>63.18611593538605</v>
+        <v>63.18611593538604</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>54.68705581420704</v>
+        <v>54.68705581420703</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>62.91590443774029</v>
+        <v>62.91590443774028</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44175,7 +44175,7 @@
         <v>5479</v>
       </c>
       <c r="B5479">
-        <v>136.9368566724363</v>
+        <v>136.9368566724362</v>
       </c>
     </row>
     <row r="5480" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>58.19746071529263</v>
+        <v>58.19746071529262</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>34.90915677014615</v>
+        <v>34.90915677014614</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44687,7 +44687,7 @@
         <v>5543</v>
       </c>
       <c r="B5543">
-        <v>3.697149766920604</v>
+        <v>3.697149766920603</v>
       </c>
     </row>
     <row r="5544" spans="1:2">
@@ -44735,7 +44735,7 @@
         <v>5549</v>
       </c>
       <c r="B5549">
-        <v>4.96424240257293</v>
+        <v>4.964242402572929</v>
       </c>
     </row>
     <row r="5550" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>43.08964867230028</v>
+        <v>43.08964867230027</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>47.26825554153374</v>
+        <v>47.26825554153373</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>40.25154873390381</v>
+        <v>40.2515487339038</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>38.59305972611926</v>
+        <v>38.59305972611925</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>56.07533332434583</v>
+        <v>56.07533332434582</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>47.99389943325923</v>
+        <v>47.99389943325922</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>43.3343629895825</v>
+        <v>43.33436298958249</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>77.45633094988428</v>
+        <v>77.45633094988426</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>32.8685031279472</v>
+        <v>32.86850312794719</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>75.6448588599185</v>
+        <v>75.64485885991849</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>61.45054924443356</v>
+        <v>61.45054924443355</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>48.91121178426924</v>
+        <v>48.91121178426923</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -45895,7 +45895,7 @@
         <v>5694</v>
       </c>
       <c r="B5694">
-        <v>1.792226114856885</v>
+        <v>1.792226114856884</v>
       </c>
     </row>
     <row r="5695" spans="1:2">
@@ -46015,7 +46015,7 @@
         <v>5709</v>
       </c>
       <c r="B5709">
-        <v>0.815048142779521</v>
+        <v>0.8150481427795209</v>
       </c>
     </row>
     <row r="5710" spans="1:2">
@@ -46127,7 +46127,7 @@
         <v>5723</v>
       </c>
       <c r="B5723">
-        <v>81.27533965468027</v>
+        <v>81.27533965468025</v>
       </c>
     </row>
     <row r="5724" spans="1:2">
@@ -46135,7 +46135,7 @@
         <v>5724</v>
       </c>
       <c r="B5724">
-        <v>73.19683647398028</v>
+        <v>73.19683647398027</v>
       </c>
     </row>
     <row r="5725" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>52.23610271788221</v>
+        <v>52.2361027178822</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>46.26184959477068</v>
+        <v>46.26184959477067</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>49.49237165393469</v>
+        <v>49.49237165393468</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>33.51325941300216</v>
+        <v>33.51325941300215</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>72.53185828725769</v>
+        <v>72.53185828725768</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -46887,7 +46887,7 @@
         <v>5818</v>
       </c>
       <c r="B5818">
-        <v>57.80767623387304</v>
+        <v>57.80767623387303</v>
       </c>
     </row>
     <row r="5819" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>51.56321161311576</v>
+        <v>51.56321161311575</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>40.4048248871237</v>
+        <v>40.40482488712369</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>3.543463314246594</v>
+        <v>3.543463314246593</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47455,7 +47455,7 @@
         <v>5889</v>
       </c>
       <c r="B5889">
-        <v>4.433344216037903</v>
+        <v>4.433344216037902</v>
       </c>
     </row>
     <row r="5890" spans="1:2">
@@ -47511,7 +47511,7 @@
         <v>5896</v>
       </c>
       <c r="B5896">
-        <v>2.920611158621184</v>
+        <v>2.920611158621183</v>
       </c>
     </row>
     <row r="5897" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>9.651005145741298</v>
+        <v>9.651005145741296</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>98.9914839417586</v>
+        <v>98.99148394175856</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>85.47123771519475</v>
+        <v>85.47123771519473</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>42.26201605912064</v>
+        <v>42.26201605912063</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>46.38406021789246</v>
+        <v>46.38406021789245</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>120.1471099385665</v>
+        <v>120.1471099385664</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>53.56840365963668</v>
+        <v>53.56840365963667</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>26.93267161800418</v>
+        <v>26.93267161800417</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>26.39579478228046</v>
+        <v>26.39579478228045</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48607,7 +48607,7 @@
         <v>6033</v>
       </c>
       <c r="B6033">
-        <v>2.463994757545261</v>
+        <v>2.46399475754526</v>
       </c>
     </row>
     <row r="6034" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>1.843487170229141</v>
+        <v>1.84348717022914</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>65.1183332932803</v>
+        <v>65.11833329328029</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48863,7 +48863,7 @@
         <v>6065</v>
       </c>
       <c r="B6065">
-        <v>74.2513060710838</v>
+        <v>74.25130607108379</v>
       </c>
     </row>
     <row r="6066" spans="1:2">
@@ -49055,7 +49055,7 @@
         <v>6089</v>
       </c>
       <c r="B6089">
-        <v>48.19025702916233</v>
+        <v>48.19025702916232</v>
       </c>
     </row>
     <row r="6090" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>55.52729048204911</v>
+        <v>55.5272904820491</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>37.49023340763662</v>
+        <v>37.49023340763661</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>33.00360887677008</v>
+        <v>33.00360887677007</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>63.5580230834473</v>
+        <v>63.55802308344729</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>57.04334696504425</v>
+        <v>57.04334696504424</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>41.97392722811654</v>
+        <v>41.97392722811653</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49903,7 +49903,7 @@
         <v>6195</v>
       </c>
       <c r="B6195">
-        <v>2.833867992598198</v>
+        <v>2.833867992598197</v>
       </c>
     </row>
     <row r="6196" spans="1:2">
@@ -49919,7 +49919,7 @@
         <v>6197</v>
       </c>
       <c r="B6197">
-        <v>4.391757435651858</v>
+        <v>4.391757435651857</v>
       </c>
     </row>
     <row r="6198" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>6.354952402332612</v>
+        <v>6.354952402332611</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>2.325208036476794</v>
+        <v>2.325208036476793</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>0.9768321482517436</v>
+        <v>0.9768321482517434</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50087,7 +50087,7 @@
         <v>6218</v>
       </c>
       <c r="B6218">
-        <v>6.61388066498991</v>
+        <v>6.613880664989909</v>
       </c>
     </row>
     <row r="6219" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>86.91637100683384</v>
+        <v>86.91637100683383</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>77.33646489507179</v>
+        <v>77.33646489507177</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>67.26566479355198</v>
+        <v>67.26566479355196</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50519,7 +50519,7 @@
         <v>6272</v>
       </c>
       <c r="B6272">
-        <v>131.9071715069303</v>
+        <v>131.9071715069302</v>
       </c>
     </row>
     <row r="6273" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>73.10217452849267</v>
+        <v>73.10217452849265</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>37.56643187768857</v>
+        <v>37.56643187768856</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>33.14633447259816</v>
+        <v>33.14633447259815</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>68.68969697040745</v>
+        <v>68.68969697040744</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>41.58912495435419</v>
+        <v>41.58912495435418</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -51215,7 +51215,7 @@
         <v>6359</v>
       </c>
       <c r="B6359">
-        <v>4.92883942110264</v>
+        <v>4.928839421102639</v>
       </c>
     </row>
     <row r="6360" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>5.098322402760496</v>
+        <v>5.098322402760495</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>5.151925095731655</v>
+        <v>5.151925095731654</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>5.368504593302389</v>
+        <v>5.368504593302388</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51359,7 +51359,7 @@
         <v>6377</v>
       </c>
       <c r="B6377">
-        <v>5.802337651832779</v>
+        <v>5.802337651832778</v>
       </c>
     </row>
     <row r="6378" spans="1:2">
@@ -51383,7 +51383,7 @@
         <v>6380</v>
       </c>
       <c r="B6380">
-        <v>8.847756042978283</v>
+        <v>8.847756042978281</v>
       </c>
     </row>
     <row r="6381" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>22.15159861459459</v>
+        <v>22.15159861459458</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>94.70209621991114</v>
+        <v>94.70209621991113</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>6.12911185994018</v>
+        <v>6.129111859940179</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>6.085444275179639</v>
+        <v>6.085444275179638</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>196.1205307399282</v>
+        <v>196.1205307399281</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>73.8843811306798</v>
+        <v>73.88438113067978</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>67.17891576610822</v>
+        <v>67.1789157661082</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51735,7 +51735,7 @@
         <v>6424</v>
       </c>
       <c r="B6424">
-        <v>63.71305766289915</v>
+        <v>63.71305766289914</v>
       </c>
     </row>
     <row r="6425" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>4.354546205873027</v>
+        <v>4.354546205873026</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -52263,7 +52263,7 @@
         <v>6490</v>
       </c>
       <c r="B6490">
-        <v>87.71850643964994</v>
+        <v>87.71850643964993</v>
       </c>
     </row>
     <row r="6491" spans="1:2">
@@ -52591,7 +52591,7 @@
         <v>6531</v>
       </c>
       <c r="B6531">
-        <v>3.704242086056208</v>
+        <v>3.704242086056207</v>
       </c>
     </row>
     <row r="6532" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>5.427587714696517</v>
+        <v>5.427587714696516</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>3.97125910938056</v>
+        <v>3.971259109380559</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>2.799939158452375</v>
+        <v>2.799939158452374</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52735,7 +52735,7 @@
         <v>6549</v>
       </c>
       <c r="B6549">
-        <v>6.358733018731344</v>
+        <v>6.358733018731343</v>
       </c>
     </row>
     <row r="6550" spans="1:2">
@@ -52751,7 +52751,7 @@
         <v>6551</v>
       </c>
       <c r="B6551">
-        <v>7.753077099370425</v>
+        <v>7.753077099370424</v>
       </c>
     </row>
     <row r="6552" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>85.02020138669494</v>
+        <v>85.02020138669492</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -52879,7 +52879,7 @@
         <v>6567</v>
       </c>
       <c r="B6567">
-        <v>81.73692654057189</v>
+        <v>81.73692654057187</v>
       </c>
     </row>
     <row r="6568" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>75.75944963603509</v>
+        <v>75.75944963603507</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>58.27131461703529</v>
+        <v>58.27131461703528</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>51.84866280477191</v>
+        <v>51.8486628047719</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>52.97757244569541</v>
+        <v>52.9775724456954</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>1.921139272632851</v>
+        <v>1.92113927263285</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>26.5002159933555</v>
+        <v>26.50021599335549</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>17.08401936378967</v>
+        <v>17.08401936378966</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54031,7 +54031,7 @@
         <v>6711</v>
       </c>
       <c r="B6711">
-        <v>8.489652540837985</v>
+        <v>8.489652540837984</v>
       </c>
     </row>
     <row r="6712" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>50.51882365974218</v>
+        <v>50.51882365974217</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54295,7 +54295,7 @@
         <v>6744</v>
       </c>
       <c r="B6744">
-        <v>73.97426601823723</v>
+        <v>73.97426601823722</v>
       </c>
     </row>
     <row r="6745" spans="1:2">
@@ -54335,7 +54335,7 @@
         <v>6749</v>
       </c>
       <c r="B6749">
-        <v>86.6154163572325</v>
+        <v>86.61541635723249</v>
       </c>
     </row>
     <row r="6750" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>97.31247996126774</v>
+        <v>97.31247996126773</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>48.04753143333426</v>
+        <v>48.04753143333425</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>65.53566645233406</v>
+        <v>65.53566645233404</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54991,7 +54991,7 @@
         <v>6831</v>
       </c>
       <c r="B6831">
-        <v>44.30530734066754</v>
+        <v>44.30530734066753</v>
       </c>
     </row>
     <row r="6832" spans="1:2">
@@ -55319,7 +55319,7 @@
         <v>6872</v>
       </c>
       <c r="B6872">
-        <v>7.657242869728165</v>
+        <v>7.657242869728164</v>
       </c>
     </row>
     <row r="6873" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>5.67578957733881</v>
+        <v>5.675789577338809</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>6.47179982544689</v>
+        <v>6.471799825446889</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>80.04209672399332</v>
+        <v>80.04209672399331</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55871,7 +55871,7 @@
         <v>6941</v>
       </c>
       <c r="B6941">
-        <v>5.094922778712023</v>
+        <v>5.094922778712022</v>
       </c>
     </row>
     <row r="6942" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>88.00659527065405</v>
+        <v>88.00659527065403</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>57.76664628846045</v>
+        <v>57.76664628846044</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>5.898634933716124</v>
+        <v>5.898634933716123</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>6.960803507005277</v>
+        <v>6.960803507005276</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>13.09034031995152</v>
+        <v>13.09034031995151</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>4.411363888138302</v>
+        <v>4.411363888138301</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56751,7 +56751,7 @@
         <v>7051</v>
       </c>
       <c r="B7051">
-        <v>4.764983403387081</v>
+        <v>4.76498340338708</v>
       </c>
     </row>
     <row r="7052" spans="1:2">
@@ -56775,7 +56775,7 @@
         <v>7054</v>
       </c>
       <c r="B7054">
-        <v>9.149619212799468</v>
+        <v>9.149619212799466</v>
       </c>
     </row>
     <row r="7055" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>21.57518649575546</v>
+        <v>21.57518649575545</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>67.6021103459352</v>
+        <v>67.60211034593519</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>56.15182486543644</v>
+        <v>56.15182486543643</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>51.70359264063454</v>
+        <v>51.70359264063453</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>76.50590157150553</v>
+        <v>76.50590157150552</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>7.713571123358876</v>
+        <v>7.713571123358875</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>5.370966390027145</v>
+        <v>5.370966390027144</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57895,7 +57895,7 @@
         <v>7194</v>
       </c>
       <c r="B7194">
-        <v>14.24829330080636</v>
+        <v>14.24829330080635</v>
       </c>
     </row>
     <row r="7195" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>21.63251119091762</v>
+        <v>21.63251119091761</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58071,7 +58071,7 @@
         <v>7216</v>
       </c>
       <c r="B7216">
-        <v>14.54004551979373</v>
+        <v>14.54004551979372</v>
       </c>
     </row>
     <row r="7217" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>67.57954387595828</v>
+        <v>67.57954387595827</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>61.60148082934416</v>
+        <v>61.60148082934415</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>79.17900251513566</v>
+        <v>79.17900251513565</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58655,7 +58655,7 @@
         <v>7289</v>
       </c>
       <c r="B7289">
-        <v>76.65155787772022</v>
+        <v>76.65155787772021</v>
       </c>
     </row>
     <row r="7290" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>60.91335003056732</v>
+        <v>60.91335003056731</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>17.68628034823874</v>
+        <v>17.68628034823873</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59223,7 +59223,7 @@
         <v>7360</v>
       </c>
       <c r="B7360">
-        <v>0.4978221891117076</v>
+        <v>0.4978221891117075</v>
       </c>
     </row>
     <row r="7361" spans="1:2">
@@ -59399,7 +59399,7 @@
         <v>7382</v>
       </c>
       <c r="B7382">
-        <v>8.052097480116597</v>
+        <v>8.052097480116595</v>
       </c>
     </row>
     <row r="7383" spans="1:2">
@@ -59407,7 +59407,7 @@
         <v>7383</v>
       </c>
       <c r="B7383">
-        <v>7.876020400088859</v>
+        <v>7.876020400088858</v>
       </c>
     </row>
     <row r="7384" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>8.708811063548939</v>
+        <v>8.708811063548938</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>37.81612840262803</v>
+        <v>37.81612840262802</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>95.8532792597729</v>
+        <v>95.85327925977288</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>9.073098364604991</v>
+        <v>9.07309836460499</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>85.61044645855888</v>
+        <v>85.61044645855887</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>80.68919757735758</v>
+        <v>80.68919757735756</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59879,7 +59879,7 @@
         <v>7442</v>
       </c>
       <c r="B7442">
-        <v>36.01119179682441</v>
+        <v>36.0111917968244</v>
       </c>
     </row>
     <row r="7443" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>45.87276848384388</v>
+        <v>45.87276848384387</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -59895,7 +59895,7 @@
         <v>7444</v>
       </c>
       <c r="B7444">
-        <v>46.47294866391845</v>
+        <v>46.47294866391844</v>
       </c>
     </row>
     <row r="7445" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>74.16778082506532</v>
+        <v>74.16778082506531</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>69.81889968236962</v>
+        <v>69.8188996823696</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
@@ -60175,7 +60175,7 @@
         <v>7479</v>
       </c>
       <c r="B7479">
-        <v>76.51645212889734</v>
+        <v>76.51645212889733</v>
       </c>
     </row>
     <row r="7480" spans="1:2">
@@ -60271,7 +60271,7 @@
         <v>7491</v>
       </c>
       <c r="B7491">
-        <v>1.79160773496531</v>
+        <v>1.791607734965309</v>
       </c>
     </row>
     <row r="7492" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>91.03343295794842</v>
+        <v>91.03343295794841</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>0.9215706732017602</v>
+        <v>0.92157067320176</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60999,7 +60999,7 @@
         <v>7582</v>
       </c>
       <c r="B7582">
-        <v>50.8448944973568</v>
+        <v>50.84489449735679</v>
       </c>
     </row>
     <row r="7583" spans="1:2">
@@ -61007,7 +61007,7 @@
         <v>7583</v>
       </c>
       <c r="B7583">
-        <v>53.50744488359512</v>
+        <v>53.50744488359511</v>
       </c>
     </row>
     <row r="7584" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>82.80815980108683</v>
+        <v>82.80815980108682</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>0.7778603586837829</v>
+        <v>0.7778603586837828</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>95.57632712823795</v>
+        <v>95.57632712823791</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>6.745381640037256</v>
+        <v>6.745381640037255</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>13.52326485826206</v>
+        <v>13.52326485826205</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>9.90354445975578</v>
+        <v>9.903544459755778</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>44.83934138731625</v>
+        <v>44.83934138731624</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>67.62338730334201</v>
+        <v>67.623387303342</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>18.7749806426579</v>
+        <v>18.77498064265789</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -61887,7 +61887,7 @@
         <v>7693</v>
       </c>
       <c r="B7693">
-        <v>6.738684966803844</v>
+        <v>6.738684966803843</v>
       </c>
     </row>
     <row r="7694" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>61.07134462750965</v>
+        <v>61.07134462750963</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>57.14451508759015</v>
+        <v>57.14451508759014</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>79.94280425609486</v>
+        <v>79.94280425609485</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62295,7 +62295,7 @@
         <v>7744</v>
       </c>
       <c r="B7744">
-        <v>157.8323235082245</v>
+        <v>157.8323235082244</v>
       </c>
     </row>
     <row r="7745" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>89.48809867819101</v>
+        <v>89.48809867819099</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>62.4214935955186</v>
+        <v>62.42149359551859</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>81.32882511923596</v>
+        <v>81.32882511923594</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>203.1592178754578</v>
+        <v>203.1592178754577</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62735,7 +62735,7 @@
         <v>7799</v>
       </c>
       <c r="B7799">
-        <v>50.83903307658357</v>
+        <v>50.83903307658356</v>
       </c>
     </row>
     <row r="7800" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>49.39008986144188</v>
+        <v>49.39008986144187</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62991,7 +62991,7 @@
         <v>7831</v>
       </c>
       <c r="B7831">
-        <v>147.9706882069973</v>
+        <v>147.9706882069972</v>
       </c>
     </row>
     <row r="7832" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>75.04294956071584</v>
+        <v>75.04294956071583</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63215,7 +63215,7 @@
         <v>7859</v>
       </c>
       <c r="B7859">
-        <v>62.46436988847476</v>
+        <v>62.46436988847475</v>
       </c>
     </row>
     <row r="7860" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>56.67108813173661</v>
+        <v>56.6710881317366</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63271,7 +63271,7 @@
         <v>7866</v>
       </c>
       <c r="B7866">
-        <v>77.85631430344928</v>
+        <v>77.85631430344927</v>
       </c>
     </row>
     <row r="7867" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>106.362542942234</v>
+        <v>106.3625429422339</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63407,7 +63407,7 @@
         <v>7883</v>
       </c>
       <c r="B7883">
-        <v>83.25336401591728</v>
+        <v>83.25336401591727</v>
       </c>
     </row>
     <row r="7884" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>72.36885217555425</v>
+        <v>72.36885217555424</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>80.24639654504415</v>
+        <v>80.24639654504413</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>72.88427621124795</v>
+        <v>72.88427621124794</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>70.06493281932582</v>
+        <v>70.0649328193258</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>105.8213872693458</v>
+        <v>105.8213872693457</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>90.7242430121607</v>
+        <v>90.72424301216068</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>89.28810407069813</v>
+        <v>89.28810407069811</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>100.86303559465</v>
+        <v>100.8630355946499</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64167,7 +64167,7 @@
         <v>7978</v>
       </c>
       <c r="B7978">
-        <v>174.6109042355213</v>
+        <v>174.6109042355212</v>
       </c>
     </row>
     <row r="7979" spans="1:2">
@@ -64327,7 +64327,7 @@
         <v>7998</v>
       </c>
       <c r="B7998">
-        <v>38.6974809371943</v>
+        <v>38.69748093719429</v>
       </c>
     </row>
     <row r="7999" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>2.413612915288989</v>
+        <v>2.413612915288988</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>63.95985278455587</v>
+        <v>63.95985278455586</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>80.75308706378574</v>
+        <v>80.75308706378573</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>75.80519802517013</v>
+        <v>75.80519802517011</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>38.02749123571059</v>
+        <v>38.02749123571058</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>55.16561151323715</v>
+        <v>55.16561151323714</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>57.28706484079503</v>
+        <v>57.28706484079502</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>238.3130303486784</v>
+        <v>238.3130303486783</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>81.49983207029486</v>
+        <v>81.49983207029484</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>91.6825853085833</v>
+        <v>91.68258530858328</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>60.26097389850716</v>
+        <v>60.26097389850715</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65375,7 +65375,7 @@
         <v>8129</v>
       </c>
       <c r="B8129">
-        <v>59.94533638986889</v>
+        <v>59.94533638986888</v>
       </c>
     </row>
     <row r="8130" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>63.8991577724491</v>
+        <v>63.89915777244909</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -65727,7 +65727,7 @@
         <v>8173</v>
       </c>
       <c r="B8173">
-        <v>65.97146308682348</v>
+        <v>65.97146308682346</v>
       </c>
     </row>
     <row r="8174" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>51.87943526383135</v>
+        <v>51.87943526383134</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>96.58988400834433</v>
+        <v>96.58988400834431</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>96.67809839098139</v>
+        <v>96.67809839098138</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66383,7 +66383,7 @@
         <v>8255</v>
       </c>
       <c r="B8255">
-        <v>17.90523372122263</v>
+        <v>17.90523372122262</v>
       </c>
     </row>
     <row r="8256" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>63.87955131996266</v>
+        <v>63.87955131996265</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>64.39497535565637</v>
+        <v>64.39497535565636</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>147.5408409145927</v>
+        <v>147.5408409145926</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>178.7583576533451</v>
+        <v>178.758357653345</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66911,7 +66911,7 @@
         <v>8321</v>
       </c>
       <c r="B8321">
-        <v>132.3274353763707</v>
+        <v>132.3274353763706</v>
       </c>
     </row>
     <row r="8322" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>24.90418042390968</v>
+        <v>24.90418042390967</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>99.28053990719029</v>
+        <v>99.28053990719026</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>32.11572085804167</v>
+        <v>32.11572085804166</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>98.02745606718597</v>
+        <v>98.02745606718595</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>17.04205159105337</v>
+        <v>17.04205159105336</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>71.04337978900058</v>
+        <v>71.04337978900057</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>35.80985199326406</v>
+        <v>35.80985199326405</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67503,7 +67503,7 @@
         <v>8395</v>
       </c>
       <c r="B8395">
-        <v>67.92079579337555</v>
+        <v>67.92079579337553</v>
       </c>
     </row>
     <row r="8396" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>72.60111097369337</v>
+        <v>72.60111097369335</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>57.30303721240207</v>
+        <v>57.30303721240206</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>88.20529743486645</v>
+        <v>88.20529743486642</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>108.9445280999443</v>
+        <v>108.9445280999442</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>8.135300347992553</v>
+        <v>8.135300347992551</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>39.20197342314594</v>
+        <v>39.20197342314593</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>1.748274251188843</v>
+        <v>1.748274251188842</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>226.0623971686994</v>
+        <v>226.0623971686993</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>79.61157536819981</v>
+        <v>79.61157536819979</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>101.0804943053367</v>
+        <v>101.0804943053366</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>7.193932726129218</v>
+        <v>7.193932726129217</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>16.61481263089286</v>
+        <v>16.61481263089285</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>2.912645487790368</v>
+        <v>2.912645487790367</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>1.305136187180956</v>
+        <v>1.305136187180955</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>7.608815811299765</v>
+        <v>7.608815811299764</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>87.0692368605996</v>
+        <v>87.06923686059959</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>132.9610549619565</v>
+        <v>132.9610549619564</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>135.1766720142363</v>
+        <v>135.1766720142362</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>85.73939771556988</v>
+        <v>85.73939771556986</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>63.32843123176</v>
+        <v>63.32843123175999</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>59.38381227979376</v>
+        <v>59.38381227979375</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>65.00306845377479</v>
+        <v>65.00306845377477</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>64.95019843840029</v>
+        <v>64.95019843840028</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69831,7 +69831,7 @@
         <v>8686</v>
       </c>
       <c r="B8686">
-        <v>22.68097283172858</v>
+        <v>22.68097283172857</v>
       </c>
     </row>
     <row r="8687" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>61.47654464556283</v>
+        <v>61.47654464556281</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>69.69243952918725</v>
+        <v>69.69243952918724</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>82.16026765591819</v>
+        <v>82.16026765591818</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>84.68782952174911</v>
+        <v>84.68782952174909</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>87.38250049382471</v>
+        <v>87.38250049382469</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70311,7 +70311,7 @@
         <v>8746</v>
       </c>
       <c r="B8746">
-        <v>236.8289479160012</v>
+        <v>236.8289479160011</v>
       </c>
     </row>
     <row r="8747" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>29.12071068554592</v>
+        <v>29.12071068554591</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>45.73347181916814</v>
+        <v>45.73347181916813</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
